--- a/data/trans_dic/MCS12_SP_R3-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/MCS12_SP_R3-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>28,43%</t>
+          <t>27,61%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>40,37%</t>
+          <t>39,49%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>35,66%</t>
+          <t>34,66%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>24,9; 31,81</t>
+          <t>24,02; 30,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>37,58; 43,31</t>
+          <t>36,7; 42,21</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>33,34; 37,9</t>
+          <t>32,35; 36,82</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17,93%</t>
+          <t>15,91%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>28,01%</t>
+          <t>30,25%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>23,07%</t>
+          <t>23,0%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,0; 19,74</t>
+          <t>10,75; 18,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>23,72; 41,11</t>
+          <t>22,47; 50,1</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>20,53; 30,73</t>
+          <t>18,26; 34,87</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>19,26%</t>
+          <t>19,6%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>23,72%</t>
+          <t>23,61%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>21,56%</t>
+          <t>21,63%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,3; 22,94</t>
+          <t>16,38; 24,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>21,22; 26,81</t>
+          <t>21,14; 26,64</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>19,39; 23,83</t>
+          <t>19,44; 24,3</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>19,87%</t>
+          <t>18,34%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>29,9%</t>
+          <t>30,95%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>25,18%</t>
+          <t>24,82%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>18,41; 21,41</t>
+          <t>14,12; 20,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>27,42; 37,48</t>
+          <t>26,36; 44,76</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>23,65; 31,33</t>
+          <t>21,92; 35,61</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/MCS12_SP_R3-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/MCS12_SP_R3-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>24,4; 30,02</t>
+          <t>24,1; 29,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>26,73; 32,6</t>
+          <t>26,83; 32,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>23,35; 29,42</t>
+          <t>22,86; 29,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>24,02; 30,98</t>
+          <t>24,13; 31,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>30,22; 35,36</t>
+          <t>30,32; 35,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>37,53; 42,72</t>
+          <t>36,87; 42,52</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>35,7; 41,79</t>
+          <t>35,33; 41,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>36,7; 42,21</t>
+          <t>36,58; 42,49</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>28,23; 32,11</t>
+          <t>28,38; 32,25</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>33,47; 37,62</t>
+          <t>33,66; 37,91</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>30,91; 35,67</t>
+          <t>31,06; 35,63</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>32,35; 36,82</t>
+          <t>32,6; 37,13</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,95; 16,33</t>
+          <t>12,84; 16,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>18,95; 22,71</t>
+          <t>19,07; 22,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15,61; 18,87</t>
+          <t>15,49; 18,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,75; 18,45</t>
+          <t>11,12; 18,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,79; 25,23</t>
+          <t>20,74; 24,85</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>27,88; 32,32</t>
+          <t>28,07; 32,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>20,65; 24,5</t>
+          <t>20,77; 24,54</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>22,47; 50,1</t>
+          <t>22,32; 49,71</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,24; 20,01</t>
+          <t>17,25; 20,0</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>23,83; 26,88</t>
+          <t>23,7; 26,6</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>18,65; 21,28</t>
+          <t>18,64; 21,2</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>18,26; 34,87</t>
+          <t>18,32; 35,18</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,45; 18,6</t>
+          <t>12,2; 18,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,85; 16,47</t>
+          <t>9,8; 16,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,39; 18,89</t>
+          <t>12,34; 18,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,38; 24,02</t>
+          <t>16,42; 23,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,24; 26,22</t>
+          <t>17,86; 25,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,88; 24,62</t>
+          <t>16,98; 25,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,79; 23,64</t>
+          <t>16,39; 23,28</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>21,14; 26,64</t>
+          <t>21,1; 26,8</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,09; 21,46</t>
+          <t>16,02; 21,07</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>14,26; 19,51</t>
+          <t>14,07; 19,48</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>15,42; 20,19</t>
+          <t>15,27; 20,34</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>19,44; 24,3</t>
+          <t>19,32; 24,07</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,28; 19,96</t>
+          <t>17,32; 20,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>20,75; 23,72</t>
+          <t>20,67; 23,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,61; 20,2</t>
+          <t>17,56; 20,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,12; 20,36</t>
+          <t>14,1; 20,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>25,04; 27,96</t>
+          <t>24,9; 28,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>30,93; 34,18</t>
+          <t>31,06; 34,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>25,29; 28,32</t>
+          <t>25,32; 28,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>26,36; 44,76</t>
+          <t>26,3; 47,02</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21,66; 23,63</t>
+          <t>21,7; 23,73</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>26,44; 28,68</t>
+          <t>26,31; 28,67</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>21,98; 23,95</t>
+          <t>21,86; 24,0</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>21,92; 35,61</t>
+          <t>21,93; 32,53</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población en el primer cuartil de la puntuación del componente de salud mental (SF12)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>417</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>552</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>691</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>548</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>748</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>279537</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>289935</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>197019</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>140917</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>429714</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>534608</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>385126</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>294454</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>709250</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>824543</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>582145</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>435370</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>248599; 307953</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>261470; 320983</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>172472; 220755</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>123137; 159298</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>398776; 465179</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>493181; 568835</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>351446; 416848</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>272733; 316786</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>666079; 756787</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>778259; 876591</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>543277; 623150</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>409406; 466284</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>388</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>415</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>488</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>424</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>594</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>876</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>757</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1191</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>246428</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>409060</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>356376</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>362967</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>363415</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>530357</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>450903</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>675263</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>609843</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>939417</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>807279</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1038230</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>217485; 279147</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>374497; 448089</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>321547; 390872</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>253798; 422309</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>329270; 394601</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>493370; 570787</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>413050; 487893</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>498251; 1109636</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>566086; 656310</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>881911; 989941</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>757817; 861777</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>826810; 1587829</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>388</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>84574</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>61491</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>84326</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>126309</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>104008</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>94619</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>109551</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>155280</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>188583</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>156110</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>193877</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>281589</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>67267; 101454</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>47147; 78772</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>67473; 102944</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>105841; 154174</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>85104; 121412</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>77891; 115665</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>89977; 127833</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>138747; 176259</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>164615; 216566</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>132249; 183040</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>167326; 222951</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>251549; 313387</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>595</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>707</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>611</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>749</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>868</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1069</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>876</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1578</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1463</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1776</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1487</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>2327</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>610539</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>760486</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>637720</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>630193</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>897137</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1159583</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>945580</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1124997</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1507677</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1920069</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1583300</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1755189</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>567515; 656212</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>706802; 814552</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>593074; 683772</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>484412; 697826</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>841377; 950929</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1104075; 1216226</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>894366; 996855</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>956133; 1709159</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1444252; 1579259</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1834592; 1999486</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1510508; 1658548</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1550992; 2300462</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>